--- a/LF/TAS/Cote d'Ivoire/ci_lf_tas1_3_fts_result_202110.xlsx
+++ b/LF/TAS/Cote d'Ivoire/ci_lf_tas1_3_fts_result_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="252">
   <si>
     <t>type</t>
   </si>
@@ -66,6 +66,9 @@
     <t>choice_filter</t>
   </si>
   <si>
+    <t>read_only</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -150,67 +153,58 @@
     <t>Le code doit être un nombre à deux chiffres entre 99 et 1000</t>
   </si>
   <si>
-    <t>select_one id_list</t>
-  </si>
-  <si>
-    <t>d_IDType</t>
-  </si>
-  <si>
-    <t>Does a bar code need to be scanned on the diagnostic test?</t>
-  </si>
-  <si>
-    <t>Avez-vous besoin de scanner le code barre sur le test diagnostique</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>d_BarcodeID</t>
-  </si>
-  <si>
-    <t>Scan barcode now</t>
-  </si>
-  <si>
-    <t>Scanner le code-barres maintenant</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Scanner"</t>
-  </si>
-  <si>
-    <t>d_GenerateID</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 123-123456 upper case only with dashes)</t>
-  </si>
-  <si>
-    <t>Entrer le code d'identification unique du test de diagnostic (doit doit avoir le format 123-123456 uniquement avec des nombres et des tirets)</t>
-  </si>
-  <si>
-    <t>regex(.,'^[0-9]{3}-[0-9]{6}$')</t>
-  </si>
-  <si>
-    <t>Must be entered as 123-123456 only with number and dashes)</t>
-  </si>
-  <si>
-    <t>Doit être entré au format 123-123456 uniquement avec desnombre et tirets</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Generation automatique"</t>
-  </si>
-  <si>
-    <t>d_GenerateID2</t>
-  </si>
-  <si>
-    <t>Re-enter the unique ID</t>
-  </si>
-  <si>
-    <t>Répéter l'identifiant unique</t>
-  </si>
-  <si>
-    <t>. = ${d_GenerateID}</t>
-  </si>
-  <si>
-    <t>Le code répété doit être le même</t>
+    <t>d_num</t>
+  </si>
+  <si>
+    <t>Enter the order number</t>
+  </si>
+  <si>
+    <t>Must be between 1 and 410</t>
+  </si>
+  <si>
+    <t>Numéro d'ordre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doit être compris entre 1 et 410 </t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 410</t>
+  </si>
+  <si>
+    <t>The value must be between 1 and 410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La valeur doit être compris entre 1 et 410 </t>
+  </si>
+  <si>
+    <t>d_num2</t>
+  </si>
+  <si>
+    <t>Repeat order number</t>
+  </si>
+  <si>
+    <t>Répéter le numéro d'ordre</t>
+  </si>
+  <si>
+    <t>. = ${d_num}</t>
+  </si>
+  <si>
+    <t>The order number must be the same</t>
+  </si>
+  <si>
+    <t>Le numéro d'ordre doit être le même</t>
+  </si>
+  <si>
+    <t>d_code_id</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrer le code d'identification unique du test de diagnostic </t>
+  </si>
+  <si>
+    <t>concat(${d_cluster_id}, '-' ,${d_num})</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -252,7 +246,7 @@
     <t>Donner la raison du test invalide</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result1} = 'Invalid' </t>
+    <t xml:space="preserve">${d_result1} = 'Invalide' </t>
   </si>
   <si>
     <t>text</t>
@@ -273,6 +267,21 @@
     <t>${d_result1}</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>d_image_1</t>
+  </si>
+  <si>
+    <t>Please capture the image of the positive test</t>
+  </si>
+  <si>
+    <t>Veuillez capturer l'image du test positif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result1} = 'Positif' </t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
@@ -285,7 +294,7 @@
     <t>Le premier résultat du test de ce participant est ${d_display_result1}. Ce résultat nécessite un deuxième test. Continuez ce questionnaire pour entrer le deuxième résultat du test du participant.</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result1} != 'Negative' </t>
+    <t xml:space="preserve">${d_result1} != 'Negatif' </t>
   </si>
   <si>
     <t>d_lotnumber2</t>
@@ -306,19 +315,19 @@
     <t>FTS - Test 2</t>
   </si>
   <si>
-    <t>d_why_invalid2</t>
+    <t>d_why_Invalid2</t>
   </si>
   <si>
     <t>Donnez la raison du test invalide</t>
   </si>
   <si>
-    <t xml:space="preserve">${d_result2} = 'Invalid' </t>
+    <t xml:space="preserve">${d_result2} = 'Invalide' </t>
   </si>
   <si>
     <t>d_why_invalid_other2</t>
   </si>
   <si>
-    <t>selected(${d_why_invalid2},'Other')</t>
+    <t>selected(${d_why_Invalid2},'Other')</t>
   </si>
   <si>
     <t>d_display_result2</t>
@@ -327,12 +336,12 @@
     <t>d_final_result</t>
   </si>
   <si>
-    <t xml:space="preserve">if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
- if(${d_result1}="Positive" and ${d_result2}="Negative", "Indeterminate", 
-  if(${d_result1}="Positive" and ${d_result2}="Invalid", "Positive", 
-   if(${d_result1}="Invalid" and ${d_result2}="Positive", "Positive", 
-    if(${d_result1}="Invalid" and ${d_result2}="Invalid", "Indeterminate", 
-     if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Negative")
+    <t xml:space="preserve">if(${d_result1}="Positif" and ${d_result2}="Positif", "Positif",
+ if(${d_result1}="Positif" and ${d_result2}="Negatif", "Indeterminate", 
+  if(${d_result1}="Positif" and ${d_result2}="Invalide", "Positif", 
+   if(${d_result1}="Invalide" and ${d_result2}="Positif", "Positif", 
+    if(${d_result1}="Invalide" and ${d_result2}="Invalide", "Indeterminate", 
+     if(${d_result1}="Invalide" and ${d_result2}="Negatif", "Negatif", "Negatif")
     )
    )
   )
@@ -350,6 +359,12 @@
     <t xml:space="preserve">Le résultat final de ce participant est : ${d_final_result} </t>
   </si>
   <si>
+    <t>d_image_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_result2} = 'Positif' </t>
+  </si>
+  <si>
     <t>d_positive_why_no_tx</t>
   </si>
   <si>
@@ -359,7 +374,7 @@
     <t>Veuillez préciser le plan de traitement de ce participant ou expliquer pourquoi le traitement n'est pas possible.</t>
   </si>
   <si>
-    <t>${d_final_result} = 'Positive'</t>
+    <t>${d_final_result} = 'Positif'</t>
   </si>
   <si>
     <t>notes_part</t>
@@ -428,10 +443,13 @@
     <t>results_list</t>
   </si>
   <si>
+    <t>Positif</t>
+  </si>
+  <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>Positif</t>
+    <t>Negatif</t>
   </si>
   <si>
     <t xml:space="preserve">Negative </t>
@@ -440,6 +458,9 @@
     <t>Négatif</t>
   </si>
   <si>
+    <t>Invalide</t>
+  </si>
+  <si>
     <t>Invalid</t>
   </si>
   <si>
@@ -464,7 +485,7 @@
     <t>Ligne témoin discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
+    <t>Difficulte.d.absorption.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of absorbing sample</t>
@@ -473,7 +494,7 @@
     <t>Difficulté d’absorption d’échantillon</t>
   </si>
   <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
   <si>
     <t>Difficulty of migrating sample</t>
@@ -755,10 +776,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) 3. TAS2 FL - Résultat FTS</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_3_fts_result_202110</t>
+    <t>(Octobre 2021) 3. TAS1 FL - Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_3_fts_result_202110_v2</t>
   </si>
   <si>
     <t>French</t>
@@ -769,12 +790,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -784,6 +805,13 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -817,10 +845,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,8 +876,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,77 +943,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,6 +966,30 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -979,7 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1041,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,7 +1059,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,91 +1119,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,19 +1149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,13 +1167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,12 +1197,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1203,11 +1247,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.349986266670736"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,7 +1281,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1232,47 +1297,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,155 +1318,196 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1454,17 +1519,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1479,16 +1544,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1501,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1510,13 +1584,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,17 +1610,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1583,11 +1666,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1862,14 +1947,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1891,7 +1976,7 @@
     <col min="16" max="16" width="36.6266666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="36" spans="1:16">
+    <row r="1" s="3" customFormat="1" ht="36" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1904,10 +1989,10 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -1919,7 +2004,7 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -1940,352 +2025,364 @@
       <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" s="3" customFormat="1" ht="63" spans="1:16">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="27" t="s">
+      <c r="F2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="I2" s="40" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="41" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="11"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
       <c r="A3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
       <c r="A4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
       <c r="A5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
       <c r="P5" s="10"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="7" s="5" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="E7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="11"/>
+      <c r="H7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="15"/>
       <c r="O7" s="15"/>
-      <c r="P7" s="10"/>
-    </row>
-    <row r="8" s="3" customFormat="1" spans="1:16">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="26"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="47.25" spans="1:16">
-      <c r="A9" s="10" t="s">
+      <c r="H8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:16">
-      <c r="A10" s="15" t="s">
+      <c r="C9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="17" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:16">
+      <c r="A10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="M10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
       <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="12" s="3" customFormat="1" spans="1:16">
       <c r="A12" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="B12" s="19" t="s">
         <v>73</v>
       </c>
+      <c r="C12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="36"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="15" t="s">
-        <v>25</v>
+      <c r="M12" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2293,29 +2390,29 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="17" t="s">
-        <v>78</v>
+      <c r="I13" s="43"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="15" t="s">
-        <v>25</v>
+      <c r="M13" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2323,29 +2420,25 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:16">
       <c r="A14" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="31"/>
+      <c r="B14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="15" t="s">
-        <v>25</v>
+      <c r="I14" s="43"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M14" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -2353,25 +2446,29 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:16">
       <c r="A15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="B15" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="36"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>25</v>
+      <c r="I15" s="43"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -2379,57 +2476,57 @@
     </row>
     <row r="16" s="3" customFormat="1" ht="63" spans="1:16">
       <c r="A16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="B16" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="36"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="17" t="s">
-        <v>89</v>
+      <c r="I16" s="43"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="15"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:16">
       <c r="A17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="37"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="17" t="s">
-        <v>89</v>
+      <c r="I17" s="43"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="15" t="s">
-        <v>25</v>
+      <c r="M17" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2437,271 +2534,301 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="18"/>
-      <c r="M18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="21"/>
+      <c r="M18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="18"/>
-      <c r="M20" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:16">
       <c r="A22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="33"/>
+        <v>80</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="38"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
+      <c r="L22" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
     </row>
     <row r="23" s="7" customFormat="1" spans="1:16">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:16">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-    </row>
-    <row r="24" ht="31.5" spans="1:16">
-      <c r="A24" s="10" t="s">
+      <c r="D24" s="20"/>
+      <c r="E24" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" ht="31.5" spans="1:16">
       <c r="A25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="32" t="s">
+      <c r="C25" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
+        <v>77</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+        <v>119</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2715,10 +2842,10 @@
   <sheetPr/>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:G129"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -2731,7 +2858,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2743,1401 +2870,1401 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F51" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F54" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C59" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F60" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D61" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F61" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C62" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F62" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F68" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="F69" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F72" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F73" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B75" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="F75" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F76" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="F77" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="F78" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D80" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F80" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F82" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F83" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D84" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B85" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="F85" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F86" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D87" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D88" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F88" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B90">
         <v>400</v>
@@ -4149,12 +4276,12 @@
         <v>400</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B91">
         <v>401</v>
@@ -4166,12 +4293,12 @@
         <v>401</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B92">
         <v>402</v>
@@ -4183,12 +4310,12 @@
         <v>402</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B93">
         <v>403</v>
@@ -4200,12 +4327,12 @@
         <v>403</v>
       </c>
       <c r="G93" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B94">
         <v>404</v>
@@ -4217,12 +4344,12 @@
         <v>404</v>
       </c>
       <c r="G94" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B95">
         <v>405</v>
@@ -4234,12 +4361,12 @@
         <v>405</v>
       </c>
       <c r="G95" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B96">
         <v>406</v>
@@ -4251,12 +4378,12 @@
         <v>406</v>
       </c>
       <c r="G96" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B97">
         <v>407</v>
@@ -4268,12 +4395,12 @@
         <v>407</v>
       </c>
       <c r="G97" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B98">
         <v>408</v>
@@ -4285,12 +4412,12 @@
         <v>408</v>
       </c>
       <c r="G98" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B99">
         <v>409</v>
@@ -4302,12 +4429,12 @@
         <v>409</v>
       </c>
       <c r="G99" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B100">
         <v>410</v>
@@ -4319,12 +4446,12 @@
         <v>410</v>
       </c>
       <c r="G100" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>411</v>
@@ -4336,12 +4463,12 @@
         <v>411</v>
       </c>
       <c r="G101" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B102">
         <v>412</v>
@@ -4353,12 +4480,12 @@
         <v>412</v>
       </c>
       <c r="G102" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B103">
         <v>413</v>
@@ -4370,12 +4497,12 @@
         <v>413</v>
       </c>
       <c r="G103" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B104">
         <v>414</v>
@@ -4387,12 +4514,12 @@
         <v>414</v>
       </c>
       <c r="G104" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B105">
         <v>415</v>
@@ -4404,12 +4531,12 @@
         <v>415</v>
       </c>
       <c r="G105" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B106">
         <v>416</v>
@@ -4421,12 +4548,12 @@
         <v>416</v>
       </c>
       <c r="G106" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B107">
         <v>417</v>
@@ -4438,12 +4565,12 @@
         <v>417</v>
       </c>
       <c r="G107" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B108">
         <v>418</v>
@@ -4455,12 +4582,12 @@
         <v>418</v>
       </c>
       <c r="G108" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B109">
         <v>419</v>
@@ -4472,12 +4599,12 @@
         <v>419</v>
       </c>
       <c r="G109" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B110">
         <v>420</v>
@@ -4489,12 +4616,12 @@
         <v>420</v>
       </c>
       <c r="G110" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B111">
         <v>421</v>
@@ -4506,12 +4633,12 @@
         <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B112">
         <v>422</v>
@@ -4523,12 +4650,12 @@
         <v>422</v>
       </c>
       <c r="G112" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B113">
         <v>423</v>
@@ -4540,12 +4667,12 @@
         <v>423</v>
       </c>
       <c r="G113" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B114">
         <v>424</v>
@@ -4557,12 +4684,12 @@
         <v>424</v>
       </c>
       <c r="G114" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B115">
         <v>425</v>
@@ -4574,12 +4701,12 @@
         <v>425</v>
       </c>
       <c r="G115" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B116">
         <v>426</v>
@@ -4591,12 +4718,12 @@
         <v>426</v>
       </c>
       <c r="G116" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B117">
         <v>427</v>
@@ -4608,12 +4735,12 @@
         <v>427</v>
       </c>
       <c r="G117" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B118">
         <v>428</v>
@@ -4625,12 +4752,12 @@
         <v>428</v>
       </c>
       <c r="G118" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B119">
         <v>429</v>
@@ -4642,12 +4769,12 @@
         <v>429</v>
       </c>
       <c r="G119" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B120">
         <v>430</v>
@@ -4659,12 +4786,12 @@
         <v>430</v>
       </c>
       <c r="G120" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B121">
         <v>431</v>
@@ -4676,12 +4803,12 @@
         <v>431</v>
       </c>
       <c r="G121" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B122">
         <v>432</v>
@@ -4693,12 +4820,12 @@
         <v>432</v>
       </c>
       <c r="G122" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B123">
         <v>433</v>
@@ -4710,12 +4837,12 @@
         <v>433</v>
       </c>
       <c r="G123" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B124">
         <v>434</v>
@@ -4727,12 +4854,12 @@
         <v>434</v>
       </c>
       <c r="G124" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B125">
         <v>435</v>
@@ -4744,12 +4871,12 @@
         <v>435</v>
       </c>
       <c r="G125" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B126">
         <v>436</v>
@@ -4761,12 +4888,12 @@
         <v>436</v>
       </c>
       <c r="G126" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B127">
         <v>437</v>
@@ -4778,12 +4905,12 @@
         <v>437</v>
       </c>
       <c r="G127" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B128">
         <v>438</v>
@@ -4795,12 +4922,12 @@
         <v>438</v>
       </c>
       <c r="G128" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B129">
         <v>439</v>
@@ -4812,7 +4939,7 @@
         <v>439</v>
       </c>
       <c r="G129" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4957,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4842,24 +4969,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Cote d'Ivoire/ci_lf_tas1_3_fts_result_202110.xlsx
+++ b/LF/TAS/Cote d'Ivoire/ci_lf_tas1_3_fts_result_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="255">
   <si>
     <t>type</t>
   </si>
@@ -120,6 +120,15 @@
     <t>Sélectionner le district</t>
   </si>
   <si>
+    <t>d_district_id</t>
+  </si>
+  <si>
+    <t>Select the district ID</t>
+  </si>
+  <si>
+    <t>Sélectionner le code du district</t>
+  </si>
+  <si>
     <t>d_cluster_name</t>
   </si>
   <si>
@@ -204,7 +213,7 @@
     <t xml:space="preserve">Entrer le code d'identification unique du test de diagnostic </t>
   </si>
   <si>
-    <t>concat(${d_cluster_id}, '-' ,${d_num})</t>
+    <t>concat(${d_district_id}, '-', ${d_cluster_id}, '-' ,${d_num})</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -776,10 +785,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) 3. TAS1 FL - Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>ci_lf_tas1_3_fts_result_202110_v2</t>
+    <t>(Octobre 2021) 3. TAS1 FL - Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_3_fts_result_202110_v3</t>
   </si>
   <si>
     <t>French</t>
@@ -790,12 +799,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -805,13 +814,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -845,6 +847,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -854,7 +863,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -862,7 +924,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,6 +938,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -885,59 +955,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -957,13 +975,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -974,25 +985,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1023,7 +1025,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1035,31 +1169,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,73 +1187,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,66 +1199,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1247,21 +1249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.349986266670736"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1286,17 +1273,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,13 +1314,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1344,170 +1346,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1519,17 +1506,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1544,19 +1531,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1575,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,16 +1571,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,14 +1591,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1947,14 +1925,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1989,10 +1967,10 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
@@ -2004,7 +1982,7 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -2042,29 +2020,29 @@
       <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="39" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="11"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
       <c r="P2" s="10"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:16">
@@ -2078,21 +2056,21 @@
         <v>29</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="10"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
@@ -2106,21 +2084,21 @@
         <v>32</v>
       </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="41"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30" t="s">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
       <c r="P4" s="10"/>
     </row>
     <row r="5" s="3" customFormat="1" spans="1:16">
@@ -2134,24 +2112,24 @@
         <v>35</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
       <c r="K5" s="11"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30" t="s">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="31.5" spans="1:16">
+    <row r="6" s="3" customFormat="1" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
@@ -2161,227 +2139,225 @@
       <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="C7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31" t="s">
+      <c r="D7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="E7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="F7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="31.5" spans="1:16">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:17">
-      <c r="A9" s="16" t="s">
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:17">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34" t="s">
+      <c r="B10" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="C10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="5" t="s">
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:16">
-      <c r="A10" s="10" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:16">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="30" t="s">
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="31.5" spans="1:16">
-      <c r="A11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="31.5" spans="1:16">
+      <c r="A12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="B12" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="C12" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:16">
-      <c r="A12" s="10" t="s">
+      <c r="D12" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="E12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="F12" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="36"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="I12" s="40"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="10"/>
@@ -2390,28 +2366,28 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:16">
       <c r="A13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="19" t="s">
+      <c r="I13" s="40"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="18" t="s">
         <v>79</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="30" t="s">
+      <c r="M13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="10"/>
@@ -2422,22 +2398,26 @@
       <c r="A14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="34"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="10" t="s">
+      <c r="I14" s="40"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="10"/>
@@ -2448,387 +2428,413 @@
       <c r="A15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="36"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="30" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="63" spans="1:16">
+    <row r="16" s="3" customFormat="1" spans="1:16">
       <c r="A16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="19" t="s">
-        <v>92</v>
+      <c r="I16" s="40"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="18" t="s">
+        <v>90</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="30"/>
+      <c r="M16" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:16">
+    <row r="17" s="3" customFormat="1" ht="63" spans="1:16">
       <c r="A17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="19" t="s">
-        <v>92</v>
+      <c r="I17" s="40"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="30" t="s">
-        <v>26</v>
-      </c>
+      <c r="M17" s="29"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" s="3" customFormat="1" spans="1:16">
       <c r="A18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="37" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="30" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="E19" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="30" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="19" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="30" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:16">
+      <c r="B21" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-    </row>
-    <row r="23" s="7" customFormat="1" spans="1:16">
-      <c r="A23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" s="6" customFormat="1" spans="1:16">
+      <c r="A23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" s="7" customFormat="1" spans="1:16">
+      <c r="A24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:16">
+      <c r="A25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:16">
-      <c r="A24" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="30" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-    </row>
-    <row r="25" ht="31.5" spans="1:16">
-      <c r="A25" s="10" t="s">
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" ht="31.5" spans="1:16">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="37" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
+      <c r="B28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2842,7 +2848,7 @@
   <sheetPr/>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
@@ -2858,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2870,1401 +2876,1401 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" t="s">
         <v>170</v>
-      </c>
-      <c r="C20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E44" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E47" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D50" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D52" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F58" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D59" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F66" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F68" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F71" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F73" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D74" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F74" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F75" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D77" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F77" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D83" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B84" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F84" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F85" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F88" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B90">
         <v>400</v>
@@ -4276,12 +4282,12 @@
         <v>400</v>
       </c>
       <c r="G90" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B91">
         <v>401</v>
@@ -4293,12 +4299,12 @@
         <v>401</v>
       </c>
       <c r="G91" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B92">
         <v>402</v>
@@ -4310,12 +4316,12 @@
         <v>402</v>
       </c>
       <c r="G92" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B93">
         <v>403</v>
@@ -4327,12 +4333,12 @@
         <v>403</v>
       </c>
       <c r="G93" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B94">
         <v>404</v>
@@ -4344,12 +4350,12 @@
         <v>404</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B95">
         <v>405</v>
@@ -4361,12 +4367,12 @@
         <v>405</v>
       </c>
       <c r="G95" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B96">
         <v>406</v>
@@ -4378,12 +4384,12 @@
         <v>406</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B97">
         <v>407</v>
@@ -4395,12 +4401,12 @@
         <v>407</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B98">
         <v>408</v>
@@ -4412,12 +4418,12 @@
         <v>408</v>
       </c>
       <c r="G98" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B99">
         <v>409</v>
@@ -4429,12 +4435,12 @@
         <v>409</v>
       </c>
       <c r="G99" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B100">
         <v>410</v>
@@ -4446,12 +4452,12 @@
         <v>410</v>
       </c>
       <c r="G100" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B101">
         <v>411</v>
@@ -4463,12 +4469,12 @@
         <v>411</v>
       </c>
       <c r="G101" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B102">
         <v>412</v>
@@ -4480,12 +4486,12 @@
         <v>412</v>
       </c>
       <c r="G102" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B103">
         <v>413</v>
@@ -4497,12 +4503,12 @@
         <v>413</v>
       </c>
       <c r="G103" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B104">
         <v>414</v>
@@ -4514,12 +4520,12 @@
         <v>414</v>
       </c>
       <c r="G104" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B105">
         <v>415</v>
@@ -4531,12 +4537,12 @@
         <v>415</v>
       </c>
       <c r="G105" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B106">
         <v>416</v>
@@ -4548,12 +4554,12 @@
         <v>416</v>
       </c>
       <c r="G106" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B107">
         <v>417</v>
@@ -4565,12 +4571,12 @@
         <v>417</v>
       </c>
       <c r="G107" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B108">
         <v>418</v>
@@ -4582,12 +4588,12 @@
         <v>418</v>
       </c>
       <c r="G108" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B109">
         <v>419</v>
@@ -4599,12 +4605,12 @@
         <v>419</v>
       </c>
       <c r="G109" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B110">
         <v>420</v>
@@ -4616,12 +4622,12 @@
         <v>420</v>
       </c>
       <c r="G110" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B111">
         <v>421</v>
@@ -4633,12 +4639,12 @@
         <v>421</v>
       </c>
       <c r="G111" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B112">
         <v>422</v>
@@ -4650,12 +4656,12 @@
         <v>422</v>
       </c>
       <c r="G112" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B113">
         <v>423</v>
@@ -4667,12 +4673,12 @@
         <v>423</v>
       </c>
       <c r="G113" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B114">
         <v>424</v>
@@ -4684,12 +4690,12 @@
         <v>424</v>
       </c>
       <c r="G114" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B115">
         <v>425</v>
@@ -4701,12 +4707,12 @@
         <v>425</v>
       </c>
       <c r="G115" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B116">
         <v>426</v>
@@ -4718,12 +4724,12 @@
         <v>426</v>
       </c>
       <c r="G116" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B117">
         <v>427</v>
@@ -4735,12 +4741,12 @@
         <v>427</v>
       </c>
       <c r="G117" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B118">
         <v>428</v>
@@ -4752,12 +4758,12 @@
         <v>428</v>
       </c>
       <c r="G118" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B119">
         <v>429</v>
@@ -4769,12 +4775,12 @@
         <v>429</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B120">
         <v>430</v>
@@ -4786,12 +4792,12 @@
         <v>430</v>
       </c>
       <c r="G120" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B121">
         <v>431</v>
@@ -4803,12 +4809,12 @@
         <v>431</v>
       </c>
       <c r="G121" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B122">
         <v>432</v>
@@ -4820,12 +4826,12 @@
         <v>432</v>
       </c>
       <c r="G122" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B123">
         <v>433</v>
@@ -4837,12 +4843,12 @@
         <v>433</v>
       </c>
       <c r="G123" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B124">
         <v>434</v>
@@ -4854,12 +4860,12 @@
         <v>434</v>
       </c>
       <c r="G124" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B125">
         <v>435</v>
@@ -4871,12 +4877,12 @@
         <v>435</v>
       </c>
       <c r="G125" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B126">
         <v>436</v>
@@ -4888,12 +4894,12 @@
         <v>436</v>
       </c>
       <c r="G126" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B127">
         <v>437</v>
@@ -4905,12 +4911,12 @@
         <v>437</v>
       </c>
       <c r="G127" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B128">
         <v>438</v>
@@ -4922,12 +4928,12 @@
         <v>438</v>
       </c>
       <c r="G128" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B129">
         <v>439</v>
@@ -4939,7 +4945,7 @@
         <v>439</v>
       </c>
       <c r="G129" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4969,24 +4975,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
